--- a/biology/Zoologie/Albatros_de_Tristan_da_Cunha/Albatros_de_Tristan_da_Cunha.xlsx
+++ b/biology/Zoologie/Albatros_de_Tristan_da_Cunha/Albatros_de_Tristan_da_Cunha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diomedea dabbenena
 L'Albatros de Tristan da Cunha (Diomedea dabbenena) est une espèce d'oiseaux de mer de la famille des Diomedeidae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Longtemps considéré comme une sous-espèce de l'Albatros hurleur, Diomedea dabbenena est plus sombre que ce dernier. Même âgées, les femelles sont tachetées de brun et présentent un dessus des ailes entièrement sombre.
 </t>
@@ -543,7 +557,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Albatros hurleur (Diomedea exulans) (Sibley and Monroe 1990, 1993) a été divisé en D. exulans, D. dabbenena et D. antipodensis à la suite des travaux de Brooke (2004). Auparavant, Diomedea dabbenena était donc la sous-espèce Diomedea exulans dabbenena.
 </t>
@@ -574,7 +590,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Diomedea dabbenena ne se reproduit plus sur l'île Tristan da Cunha mais niche sur l'île Gough.
 </t>
@@ -605,7 +623,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Todd F.S. &amp; Genevois F. (2006) Oiseaux &amp; Mammifères antarctiques et des îles de l'océan austral. Kameleo, Paris, 144 p.</t>
         </is>
